--- a/參數組猜測/Result.xlsx
+++ b/參數組猜測/Result.xlsx
@@ -1,48 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r8891\Desktop\thesis\參數組猜測\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C214AAFB-3530-4FAC-A0DB-D9F5010DDC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="1150" windowWidth="17670" windowHeight="9980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>freq(1/sec)</t>
+    <t>1頻率(1/sec)</t>
   </si>
   <si>
-    <t>anglefreq(rad/sec)</t>
+    <t>2角頻率(rad/sec)</t>
   </si>
   <si>
-    <t>amp_E_Geo1(volt)</t>
+    <t>3標準儀器:電壓(volt)</t>
   </si>
   <si>
-    <t>amp_T_Geo1(volt/m/s)</t>
+    <t>4標準儀器:振幅響應(volt/m/s)</t>
   </si>
   <si>
-    <t>amp_V_Geo1(m/s)</t>
+    <t>5標準儀器:震動速度(m/s)</t>
   </si>
   <si>
-    <t>amp_E_Geo2(volt)</t>
+    <t>6待測儀器:電壓(volt)</t>
+  </si>
+  <si>
+    <t>電壓振幅誤差(%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -50,8 +59,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -97,15 +113,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -147,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +203,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +255,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,14 +448,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,1917 +481,3003 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.001541623843782</v>
+        <v>2.0055332718525349</v>
       </c>
       <c r="C2">
-        <v>12.57605692264362</v>
+        <v>12.601137186763649</v>
       </c>
       <c r="D2">
-        <v>3.650188488497916E-05</v>
+        <v>1.498354210641098E-5</v>
       </c>
       <c r="E2">
-        <v>1.142938167819012</v>
+        <v>1.1476543431644231</v>
       </c>
       <c r="F2">
-        <v>3.193688505007504E-05</v>
+        <v>1.305579697899013E-5</v>
       </c>
       <c r="G2">
-        <v>1.529538215224684E-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>4.3559443015439262E-6</v>
+      </c>
+      <c r="H2">
+        <v>70.92847425122423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2.515416238437821</v>
+        <v>2.5166387040144</v>
       </c>
       <c r="C3">
-        <v>15.80482635079346</v>
+        <v>15.81250732854275</v>
       </c>
       <c r="D3">
-        <v>8.656120236437133E-06</v>
+        <v>2.9695725638329172E-5</v>
       </c>
       <c r="E3">
-        <v>1.840563235355147</v>
+        <v>1.8424478422805179</v>
       </c>
       <c r="F3">
-        <v>4.702973562745801E-06</v>
+        <v>1.6117539371737569E-5</v>
       </c>
       <c r="G3">
-        <v>1.310954907335925E-05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.145962298572642E-5</v>
+      </c>
+      <c r="H3">
+        <v>61.409857010077118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>452</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3.16289825282631</v>
+        <v>3.1610759880445771</v>
       </c>
       <c r="C4">
-        <v>19.87307583026226</v>
+        <v>19.861626202959879</v>
       </c>
       <c r="D4">
-        <v>7.041865613065122E-06</v>
+        <v>1.8925842603364841E-5</v>
       </c>
       <c r="E4">
-        <v>3.001987308723355</v>
+        <v>2.9982348871216442</v>
       </c>
       <c r="F4">
-        <v>2.345734638052082E-06</v>
+        <v>6.3123281917161494E-6</v>
       </c>
       <c r="G4">
-        <v>1.418455402664794E-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1.227373650046988E-5</v>
+      </c>
+      <c r="H4">
+        <v>35.148269180428862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>768</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>3.974820143884892</v>
+        <v>3.9777335807379921</v>
       </c>
       <c r="C5">
-        <v>24.974531526739</v>
+        <v>24.992837190367791</v>
       </c>
       <c r="D5">
-        <v>1.146939688631651E-05</v>
+        <v>7.7622808097615279E-6</v>
       </c>
       <c r="E5">
-        <v>4.982770306692651</v>
+        <v>4.9910762955372121</v>
       </c>
       <c r="F5">
-        <v>2.301811277736663E-06</v>
+        <v>1.5552318478285331E-6</v>
       </c>
       <c r="G5">
-        <v>1.358268538534037E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1.7819565585628041E-5</v>
+      </c>
+      <c r="H5">
+        <v>129.5661033445077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1166</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>4.99743062692703</v>
+        <v>4.9943889512338746</v>
       </c>
       <c r="C6">
-        <v>31.39978268875718</v>
+        <v>31.380671276732748</v>
       </c>
       <c r="D6">
-        <v>3.152602740220707E-05</v>
+        <v>3.548525156514538E-5</v>
       </c>
       <c r="E6">
-        <v>8.531294208693453</v>
+        <v>8.5186481692253047</v>
       </c>
       <c r="F6">
-        <v>3.695339374192699E-06</v>
+        <v>4.1655965665233537E-6</v>
       </c>
       <c r="G6">
-        <v>3.491343770973133E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1.811366230335693E-5</v>
+      </c>
+      <c r="H6">
+        <v>48.954392305481967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>5.495889003083247</v>
+        <v>5.0054999388895682</v>
       </c>
       <c r="C7">
-        <v>34.53168903406252</v>
+        <v>31.450483671119251</v>
       </c>
       <c r="D7">
-        <v>2.601141233944071E-05</v>
+        <v>3.6246081967871772E-5</v>
       </c>
       <c r="E7">
-        <v>10.79959960964438</v>
+        <v>8.5649021853450229</v>
       </c>
       <c r="F7">
-        <v>2.408553398240033E-06</v>
+        <v>4.231931805349818E-6</v>
       </c>
       <c r="G7">
-        <v>1.981581976165734E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1.9987355335759261E-5</v>
+      </c>
+      <c r="H7">
+        <v>44.856507929668389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>5.498458376156218</v>
+        <v>5.3388295685603504</v>
       </c>
       <c r="C8">
-        <v>34.54783288120327</v>
+        <v>33.54485550271432</v>
       </c>
       <c r="D8">
-        <v>2.408223859935413E-05</v>
+        <v>5.3913734631288409E-5</v>
       </c>
       <c r="E8">
-        <v>10.8123542963004</v>
+        <v>10.041313242500379</v>
       </c>
       <c r="F8">
-        <v>2.227289075016179E-06</v>
+        <v>5.3691915917029407E-6</v>
       </c>
       <c r="G8">
-        <v>1.314167869579715E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>2.5363222408841511E-5</v>
+      </c>
+      <c r="H8">
+        <v>52.955916368438402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>581</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>6.495375128468654</v>
+        <v>5.6721591982311308</v>
       </c>
       <c r="C9">
-        <v>40.81164557181396</v>
+        <v>35.639227334309382</v>
       </c>
       <c r="D9">
-        <v>1.413472252232925E-05</v>
+        <v>1.981128718728063E-5</v>
       </c>
       <c r="E9">
-        <v>16.70173953221655</v>
+        <v>11.701562436020099</v>
       </c>
       <c r="F9">
-        <v>8.463024162880939E-07</v>
+        <v>1.693046317156496E-6</v>
       </c>
       <c r="G9">
-        <v>1.880334166347538E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>2.124153518167132E-5</v>
+      </c>
+      <c r="H9">
+        <v>7.2193592514722997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>582</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>6.497944501541624</v>
+        <v>6.0054888279019121</v>
       </c>
       <c r="C10">
-        <v>40.82778941895471</v>
+        <v>37.733599165904451</v>
       </c>
       <c r="D10">
-        <v>2.976397706885246E-05</v>
+        <v>7.8242736303065774E-5</v>
       </c>
       <c r="E10">
-        <v>16.71952569290981</v>
+        <v>13.56359408391147</v>
       </c>
       <c r="F10">
-        <v>1.780192669070413E-06</v>
+        <v>5.768584330894553E-6</v>
       </c>
       <c r="G10">
-        <v>1.671656994053758E-05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>4.6204414186213972E-5</v>
+      </c>
+      <c r="H10">
+        <v>40.947343652137143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>970</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>7.49486125385406</v>
+        <v>6.3388184575726934</v>
       </c>
       <c r="C11">
-        <v>47.0916021095654</v>
+        <v>39.827970997499513</v>
       </c>
       <c r="D11">
-        <v>2.57669897003197E-05</v>
+        <v>2.867667166474441E-5</v>
       </c>
       <c r="E11">
-        <v>24.68998714475408</v>
+        <v>15.64456426093515</v>
       </c>
       <c r="F11">
-        <v>1.043621025367543E-06</v>
+        <v>1.8330118491283739E-6</v>
       </c>
       <c r="G11">
-        <v>8.981957659713273E-06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>2.8143910542605671E-5</v>
+      </c>
+      <c r="H11">
+        <v>1.857820629838751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>971</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>7.49743062692703</v>
+        <v>6.6721480872434764</v>
       </c>
       <c r="C12">
-        <v>47.10774595670615</v>
+        <v>41.922342829094589</v>
       </c>
       <c r="D12">
-        <v>2.883639502990636E-06</v>
+        <v>4.8455821271929393E-5</v>
       </c>
       <c r="E12">
-        <v>24.71314996790747</v>
+        <v>17.95866032465489</v>
       </c>
       <c r="F12">
-        <v>1.166844172732062E-07</v>
+        <v>2.6981868578139918E-6</v>
       </c>
       <c r="G12">
-        <v>9.891757431694141E-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>2.5304114954695242E-5</v>
+      </c>
+      <c r="H12">
+        <v>47.778998909767743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1360</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>8.496916752312435</v>
+        <v>7.0054777169142568</v>
       </c>
       <c r="C13">
-        <v>53.38770249445758</v>
+        <v>44.016714660689651</v>
       </c>
       <c r="D13">
-        <v>1.141545340066964E-05</v>
+        <v>1.9296014568722428E-5</v>
       </c>
       <c r="E13">
-        <v>34.31487431019119</v>
+        <v>20.51369481570714</v>
       </c>
       <c r="F13">
-        <v>3.326677899933136E-07</v>
+        <v>9.4064061799084834E-7</v>
       </c>
       <c r="G13">
-        <v>1.82697202916094E-06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1.398610326904495E-5</v>
+      </c>
+      <c r="H13">
+        <v>27.518176257414812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1361</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>8.499486125385406</v>
+        <v>7.3388073465850381</v>
       </c>
       <c r="C14">
-        <v>53.40384634159833</v>
+        <v>46.11108649228472</v>
       </c>
       <c r="D14">
-        <v>2.458968059452626E-05</v>
+        <v>1.8671216716806821E-5</v>
       </c>
       <c r="E14">
-        <v>34.33998019874452</v>
+        <v>23.30617321576932</v>
       </c>
       <c r="F14">
-        <v>7.160656602657351E-07</v>
+        <v>8.0112751861698105E-7</v>
       </c>
       <c r="G14">
-        <v>1.453701891826512E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>2.7789284439277359E-5</v>
+      </c>
+      <c r="H14">
+        <v>48.834887735317992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>1749</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>9.496402877697841</v>
+        <v>7.6721369762558194</v>
       </c>
       <c r="C15">
-        <v>59.66765903220902</v>
+        <v>48.205458323879782</v>
       </c>
       <c r="D15">
-        <v>1.618968684979557E-05</v>
+        <v>7.5461689745960657E-6</v>
       </c>
       <c r="E15">
-        <v>43.04900051670958</v>
+        <v>26.314802744334031</v>
       </c>
       <c r="F15">
-        <v>3.760757893440872E-07</v>
+        <v>2.8676517349995588E-7</v>
       </c>
       <c r="G15">
-        <v>1.803010023568763E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>2.0248847086616549E-5</v>
+      </c>
+      <c r="H15">
+        <v>168.33280774368609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1750</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>9.498972250770812</v>
+        <v>8.0054666059266015</v>
       </c>
       <c r="C16">
-        <v>59.68380287934977</v>
+        <v>50.299830155474851</v>
       </c>
       <c r="D16">
-        <v>1.772235289445692E-05</v>
+        <v>3.3272817458824992E-5</v>
       </c>
       <c r="E16">
-        <v>43.06713915124342</v>
+        <v>29.49308725499797</v>
       </c>
       <c r="F16">
-        <v>4.115052275058128E-07</v>
+        <v>1.1281564785384241E-6</v>
       </c>
       <c r="G16">
-        <v>2.444841638385561E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1.583316423454565E-5</v>
+      </c>
+      <c r="H16">
+        <v>52.414116255291162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2138</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>10.49588900308325</v>
+        <v>8.3387962355973819</v>
       </c>
       <c r="C17">
-        <v>65.94761556996046</v>
+        <v>52.394201987069913</v>
       </c>
       <c r="D17">
-        <v>1.217710576467714E-05</v>
+        <v>7.7098415732040454E-6</v>
       </c>
       <c r="E17">
-        <v>47.66431811704759</v>
+        <v>32.762865508095487</v>
       </c>
       <c r="F17">
-        <v>2.554763446898421E-07</v>
+        <v>2.353225657657751E-7</v>
       </c>
       <c r="G17">
-        <v>8.213598175094219E-06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>3.2460198634702359E-6</v>
+      </c>
+      <c r="H17">
+        <v>57.897709925039877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>2139</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>10.49845837615622</v>
+        <v>8.6721258652681641</v>
       </c>
       <c r="C18">
-        <v>65.96375941710122</v>
+        <v>54.488573818664982</v>
       </c>
       <c r="D18">
-        <v>2.009484988788096E-05</v>
+        <v>1.851652390940115E-5</v>
       </c>
       <c r="E18">
-        <v>47.66984620581424</v>
+        <v>36.012162384105167</v>
       </c>
       <c r="F18">
-        <v>4.215421589807859E-07</v>
+        <v>5.1417417571053328E-7</v>
       </c>
       <c r="G18">
-        <v>3.412267503245514E-06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>3.8888248076817216E-6</v>
+      </c>
+      <c r="H18">
+        <v>78.998083945403479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>2527</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>11.49537512846865</v>
+        <v>9.0054554949389445</v>
       </c>
       <c r="C19">
-        <v>72.22757210771189</v>
+        <v>56.582945650260037</v>
       </c>
       <c r="D19">
-        <v>6.729649704346607E-06</v>
+        <v>2.8427502180999781E-5</v>
       </c>
       <c r="E19">
-        <v>47.92936067471451</v>
+        <v>39.101543233433127</v>
       </c>
       <c r="F19">
-        <v>1.404076668165717E-07</v>
+        <v>7.2701739701908544E-7</v>
       </c>
       <c r="G19">
-        <v>4.873387422101057E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>1.3926470893549839E-5</v>
+      </c>
+      <c r="H19">
+        <v>51.010571365436597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2528</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>11.49794450154162</v>
+        <v>9.3387851246097267</v>
       </c>
       <c r="C20">
-        <v>72.24371595485263</v>
+        <v>58.677317481855113</v>
       </c>
       <c r="D20">
-        <v>9.409503549372744E-06</v>
+        <v>2.990604854058036E-5</v>
       </c>
       <c r="E20">
-        <v>47.92626117550051</v>
+        <v>41.881606989562457</v>
       </c>
       <c r="F20">
-        <v>1.963329356094817E-07</v>
+        <v>7.1406162967990722E-7</v>
       </c>
       <c r="G20">
-        <v>2.730817404773128E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>7.5061655124838333E-6</v>
+      </c>
+      <c r="H20">
+        <v>74.900844883273336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>2916</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>12.49486125385406</v>
+        <v>9.6721147542805088</v>
       </c>
       <c r="C21">
-        <v>78.50752864546332</v>
+        <v>60.771689313450189</v>
       </c>
       <c r="D21">
-        <v>2.055704893163512E-05</v>
+        <v>1.970221961868959E-5</v>
       </c>
       <c r="E21">
-        <v>46.01209724614125</v>
+        <v>44.21934712006415</v>
       </c>
       <c r="F21">
-        <v>4.467748736091162E-07</v>
+        <v>4.4555654711939162E-7</v>
       </c>
       <c r="G21">
-        <v>1.508870429758975E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1.9058991558743729E-5</v>
+      </c>
+      <c r="H21">
+        <v>3.2647492130059081</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>2917</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>12.49743062692703</v>
+        <v>10.005444383951289</v>
       </c>
       <c r="C22">
-        <v>78.52367249260408</v>
+        <v>62.866061145045236</v>
       </c>
       <c r="D22">
-        <v>4.535424848106291E-06</v>
+        <v>2.406122610190608E-5</v>
       </c>
       <c r="E22">
-        <v>46.00604996765372</v>
+        <v>46.024883871806423</v>
       </c>
       <c r="F22">
-        <v>9.858322658204936E-08</v>
+        <v>5.2278732889199799E-7</v>
       </c>
       <c r="G22">
-        <v>8.307057946282892E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>1.0194533844226919E-5</v>
+      </c>
+      <c r="H22">
+        <v>57.630863028134158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>2918</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>12.5</v>
+        <v>10.33877401362207</v>
       </c>
       <c r="C23">
-        <v>78.53981633974483</v>
+        <v>64.96043297664032</v>
       </c>
       <c r="D23">
-        <v>1.323781912611654E-05</v>
+        <v>9.4120908422926462E-6</v>
       </c>
       <c r="E23">
-        <v>45.99999994592059</v>
+        <v>47.267584780793896</v>
       </c>
       <c r="F23">
-        <v>2.877786769930313E-07</v>
+        <v>1.991235830208324E-7</v>
       </c>
       <c r="G23">
-        <v>7.250209857300793E-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>1.129740169524E-5</v>
+      </c>
+      <c r="H23">
+        <v>20.030733707709491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>3306</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>13.49691675231244</v>
+        <v>10.67210364329285</v>
       </c>
       <c r="C24">
-        <v>84.80362903035551</v>
+        <v>67.054804808235374</v>
       </c>
       <c r="D24">
-        <v>3.114351917840864E-05</v>
+        <v>3.1291910165397777E-5</v>
       </c>
       <c r="E24">
-        <v>43.58121209357921</v>
+        <v>47.975234745560947</v>
       </c>
       <c r="F24">
-        <v>7.146088344568323E-07</v>
+        <v>6.5225131948506316E-7</v>
       </c>
       <c r="G24">
-        <v>4.006992789722288E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>4.545640768840492E-6</v>
+      </c>
+      <c r="H24">
+        <v>85.473431488158212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>3307</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>13.49948612538541</v>
+        <v>11.00543327296363</v>
       </c>
       <c r="C25">
-        <v>84.81977287749626</v>
+        <v>69.149176639830443</v>
       </c>
       <c r="D25">
-        <v>2.389956338739334E-05</v>
+        <v>2.9762689675306591E-5</v>
       </c>
       <c r="E25">
-        <v>43.57505695454861</v>
+        <v>48.218689104098942</v>
       </c>
       <c r="F25">
-        <v>5.484688961467569E-07</v>
+        <v>6.1724385768870994E-7</v>
       </c>
       <c r="G25">
-        <v>8.813717654392644E-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>2.3683497027972849E-5</v>
+      </c>
+      <c r="H25">
+        <v>20.425548610203421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>3695</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>14.49640287769784</v>
+        <v>11.33876290263442</v>
       </c>
       <c r="C26">
-        <v>91.08358556810695</v>
+        <v>71.243548471425527</v>
       </c>
       <c r="D26">
-        <v>1.934412026709845E-05</v>
+        <v>3.4988822886243281E-5</v>
       </c>
       <c r="E26">
-        <v>41.32625179336957</v>
+        <v>48.09050177687709</v>
       </c>
       <c r="F26">
-        <v>4.680831052334159E-07</v>
+        <v>7.2756202562782646E-7</v>
       </c>
       <c r="G26">
-        <v>5.015408574562908E-06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>1.1509540204204741E-5</v>
+      </c>
+      <c r="H26">
+        <v>67.105094556553368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>3696</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>14.49897225077081</v>
+        <v>11.6720925323052</v>
       </c>
       <c r="C27">
-        <v>91.09972941524771</v>
+        <v>73.337920303020582</v>
       </c>
       <c r="D27">
-        <v>4.654268292359296E-06</v>
+        <v>2.5093411852507971E-5</v>
       </c>
       <c r="E27">
-        <v>41.32087433306246</v>
+        <v>47.685887092145308</v>
       </c>
       <c r="F27">
-        <v>1.12637217084132E-07</v>
+        <v>5.2622302703562973E-7</v>
       </c>
       <c r="G27">
-        <v>9.268254861394284E-06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>2.2849294068829279E-5</v>
+      </c>
+      <c r="H27">
+        <v>8.9430556389421234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>4084</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>15.49588900308325</v>
+        <v>12.00542216197598</v>
       </c>
       <c r="C28">
-        <v>97.36354210585839</v>
+        <v>75.432292134615651</v>
       </c>
       <c r="D28">
-        <v>3.233325569687039E-05</v>
+        <v>4.1518715092396238E-5</v>
       </c>
       <c r="E28">
-        <v>39.41050307666526</v>
+        <v>47.090269755526108</v>
       </c>
       <c r="F28">
-        <v>8.204223030082236E-07</v>
+        <v>8.8168352629842307E-7</v>
       </c>
       <c r="G28">
-        <v>2.015781422581791E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>1.074620433352614E-5</v>
+      </c>
+      <c r="H28">
+        <v>74.11720398954688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>4085</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>15.49845837615622</v>
+        <v>12.338751791646761</v>
       </c>
       <c r="C29">
-        <v>97.37968595299913</v>
+        <v>77.526663966210705</v>
       </c>
       <c r="D29">
-        <v>2.470815044016535E-05</v>
+        <v>3.1247396923478678E-5</v>
       </c>
       <c r="E29">
-        <v>39.40602583232938</v>
+        <v>46.373584191995477</v>
       </c>
       <c r="F29">
-        <v>6.270145217205424E-07</v>
+        <v>6.7381888779846092E-7</v>
       </c>
       <c r="G29">
-        <v>1.518199158464628E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>4.6802141808045821E-6</v>
+      </c>
+      <c r="H29">
+        <v>85.022066982840556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>4473</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>16.49537512846865</v>
+        <v>12.672081421317539</v>
       </c>
       <c r="C30">
-        <v>103.6434986436098</v>
+        <v>79.621035797805789</v>
       </c>
       <c r="D30">
-        <v>2.375784316416151E-05</v>
+        <v>2.218103926390542E-5</v>
       </c>
       <c r="E30">
-        <v>37.82801986681735</v>
+        <v>45.589401532065992</v>
       </c>
       <c r="F30">
-        <v>6.28048817987479E-07</v>
+        <v>4.8653938236728232E-7</v>
       </c>
       <c r="G30">
-        <v>7.684520004212519E-06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>2.8058711872827021E-5</v>
+      </c>
+      <c r="H30">
+        <v>26.498634888069301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>4474</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>16.49794450154162</v>
+        <v>13.00541105098832</v>
       </c>
       <c r="C31">
-        <v>103.6596424907506</v>
+        <v>81.715407629400843</v>
       </c>
       <c r="D31">
-        <v>3.308294583394789E-05</v>
+        <v>1.7523242837570041E-5</v>
       </c>
       <c r="E31">
-        <v>37.8243395342181</v>
+        <v>44.776684011413209</v>
       </c>
       <c r="F31">
-        <v>8.746470193886432E-07</v>
+        <v>3.9134748864171159E-7</v>
       </c>
       <c r="G31">
-        <v>2.560117692953275E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>1.16081949922038E-5</v>
+      </c>
+      <c r="H31">
+        <v>33.755440703499843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>4862</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>17.49486125385406</v>
+        <v>13.3387406806591</v>
       </c>
       <c r="C32">
-        <v>109.9234551813612</v>
+        <v>83.809779460995912</v>
       </c>
       <c r="D32">
-        <v>1.212017689511338E-05</v>
+        <v>6.7050284034392106E-5</v>
       </c>
       <c r="E32">
-        <v>36.527539217384</v>
+        <v>43.962533325745987</v>
       </c>
       <c r="F32">
-        <v>3.318092911483401E-07</v>
+        <v>1.52516879629239E-6</v>
       </c>
       <c r="G32">
-        <v>6.981758889333714E-06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>5.0475800219746193E-5</v>
+      </c>
+      <c r="H32">
+        <v>24.719483374812199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>4863</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>17.49743062692703</v>
+        <v>13.67207031032989</v>
       </c>
       <c r="C33">
-        <v>109.939599028502</v>
+        <v>85.904151292590981</v>
       </c>
       <c r="D33">
-        <v>2.401749412822087E-05</v>
+        <v>5.7773850619524108E-5</v>
       </c>
       <c r="E33">
-        <v>36.52451123989296</v>
+        <v>43.164990387162241</v>
       </c>
       <c r="F33">
-        <v>6.575719513527227E-07</v>
+        <v>1.338442337211935E-6</v>
       </c>
       <c r="G33">
-        <v>2.446110339748408E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>2.2034170363411379E-5</v>
+      </c>
+      <c r="H33">
+        <v>61.861343623225373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>5252</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>18.49691675231244</v>
+        <v>14.00539994000067</v>
       </c>
       <c r="C34">
-        <v>116.2195555662534</v>
+        <v>87.99852312418605</v>
       </c>
       <c r="D34">
-        <v>4.910151067717622E-06</v>
+        <v>8.5414181149222676E-5</v>
       </c>
       <c r="E34">
-        <v>35.45207511148374</v>
+        <v>42.395460114086113</v>
       </c>
       <c r="F34">
-        <v>1.385010906209863E-07</v>
+        <v>2.014701124115018E-6</v>
       </c>
       <c r="G34">
-        <v>1.648024788295382E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>6.9328127385118984E-5</v>
+      </c>
+      <c r="H34">
+        <v>18.833001203864011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>5253</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>18.49948612538541</v>
+        <v>14.33872956967145</v>
       </c>
       <c r="C35">
-        <v>116.2356994133942</v>
+        <v>90.092894955781119</v>
       </c>
       <c r="D35">
-        <v>6.664519629899545E-06</v>
+        <v>6.0444143842723668E-5</v>
       </c>
       <c r="E35">
-        <v>35.44956920330287</v>
+        <v>41.660638481891127</v>
       </c>
       <c r="F35">
-        <v>1.88000017480568E-07</v>
+        <v>1.4508693588312929E-6</v>
       </c>
       <c r="G35">
-        <v>4.066234218671709E-06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>5.2353014853050252E-5</v>
+      </c>
+      <c r="H35">
+        <v>13.386125562017449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>5641</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>19.49640287769784</v>
+        <v>14.672059199342231</v>
       </c>
       <c r="C36">
-        <v>122.4995121040049</v>
+        <v>92.187266787376174</v>
       </c>
       <c r="D36">
-        <v>3.183105405414602E-06</v>
+        <v>5.8449807678663082E-5</v>
       </c>
       <c r="E36">
-        <v>34.56059525497645</v>
+        <v>40.963966206430037</v>
       </c>
       <c r="F36">
-        <v>9.210215801929106E-08</v>
+        <v>1.4268590932849741E-6</v>
       </c>
       <c r="G36">
-        <v>1.398436660376222E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>6.257365321541779E-5</v>
+      </c>
+      <c r="H36">
+        <v>7.0553620286078456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>5642</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>19.49897225077081</v>
+        <v>15.005388829013009</v>
       </c>
       <c r="C37">
-        <v>122.5156559511456</v>
+        <v>94.281638618971243</v>
       </c>
       <c r="D37">
-        <v>1.319887666117584E-05</v>
+        <v>8.233720712606384E-5</v>
       </c>
       <c r="E37">
-        <v>34.55850301148204</v>
+        <v>40.306688525332937</v>
       </c>
       <c r="F37">
-        <v>3.819284839042515E-07</v>
+        <v>2.0427678417271751E-6</v>
       </c>
       <c r="G37">
-        <v>3.255479343278246E-06</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>6.2859566338449325E-5</v>
+      </c>
+      <c r="H37">
+        <v>23.655940573491801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>6030</v>
+        <v>31</v>
       </c>
       <c r="B38">
-        <v>20.49588900308325</v>
+        <v>15.33871845868379</v>
       </c>
       <c r="C38">
-        <v>128.7794686417563</v>
+        <v>96.376010450566312</v>
       </c>
       <c r="D38">
-        <v>1.93095336823978E-05</v>
+        <v>2.9220447695106171E-5</v>
       </c>
       <c r="E38">
-        <v>33.81309819470902</v>
+        <v>39.688609624239909</v>
       </c>
       <c r="F38">
-        <v>5.710666786937408E-07</v>
+        <v>7.3624266437541602E-7</v>
       </c>
       <c r="G38">
-        <v>5.224224792476159E-06</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>5.4122907306369143E-5</v>
+      </c>
+      <c r="H38">
+        <v>85.222717567854446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>6031</v>
+        <v>32</v>
       </c>
       <c r="B39">
-        <v>20.49845837615622</v>
+        <v>15.67204808835457</v>
       </c>
       <c r="C39">
-        <v>128.7956124888971</v>
+        <v>98.470382282161381</v>
       </c>
       <c r="D39">
-        <v>4.895343612230438E-06</v>
+        <v>4.3471896105760732E-5</v>
       </c>
       <c r="E39">
-        <v>33.81133586712701</v>
+        <v>39.108620166527608</v>
       </c>
       <c r="F39">
-        <v>1.447840934610905E-07</v>
+        <v>1.1115681381918859E-6</v>
       </c>
       <c r="G39">
-        <v>4.666596506513864E-06</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>5.3796372014103331E-6</v>
+      </c>
+      <c r="H39">
+        <v>87.625022869206191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>6419</v>
+        <v>33</v>
       </c>
       <c r="B40">
-        <v>21.49537512846865</v>
+        <v>16.00537771802535</v>
       </c>
       <c r="C40">
-        <v>135.0594251795077</v>
+        <v>100.56475411375639</v>
       </c>
       <c r="D40">
-        <v>3.364283722274929E-05</v>
+        <v>3.20730957503578E-5</v>
       </c>
       <c r="E40">
-        <v>33.18081270645843</v>
+        <v>38.565060722632467</v>
       </c>
       <c r="F40">
-        <v>1.013924448456952E-06</v>
+        <v>8.3166200569561738E-7</v>
       </c>
       <c r="G40">
-        <v>9.066052249161004E-06</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>2.1076884542045701E-5</v>
+      </c>
+      <c r="H40">
+        <v>34.284845135940529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>6420</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>21.49794450154162</v>
+        <v>16.33870734769614</v>
       </c>
       <c r="C41">
-        <v>135.0755690266485</v>
+        <v>102.65912594535151</v>
       </c>
       <c r="D41">
-        <v>2.282063484395073E-05</v>
+        <v>9.6235117119954688E-5</v>
       </c>
       <c r="E41">
-        <v>33.17931541391257</v>
+        <v>38.055968644828013</v>
       </c>
       <c r="F41">
-        <v>6.877970373789481E-07</v>
+        <v>2.5287785476729279E-6</v>
       </c>
       <c r="G41">
-        <v>2.140306357482323E-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>5.6434296544429883E-5</v>
+      </c>
+      <c r="H41">
+        <v>41.357896957629379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>6808</v>
+        <v>35</v>
       </c>
       <c r="B42">
-        <v>22.49486125385406</v>
+        <v>16.672036977366918</v>
       </c>
       <c r="C42">
-        <v>141.3393817172592</v>
+        <v>104.7534977769466</v>
       </c>
       <c r="D42">
-        <v>3.558449695889406E-05</v>
+        <v>1.332411497292731E-5</v>
       </c>
       <c r="E42">
-        <v>32.64146079120903</v>
+        <v>37.579243207377893</v>
       </c>
       <c r="F42">
-        <v>1.090162514064862E-06</v>
+        <v>3.5456049232815311E-7</v>
       </c>
       <c r="G42">
-        <v>2.085935635913622E-05</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>1.8566586909170848E-5</v>
+      </c>
+      <c r="H42">
+        <v>39.345742264274172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>6809</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>22.49743062692703</v>
+        <v>17.005366607037701</v>
       </c>
       <c r="C43">
-        <v>141.3555255644</v>
+        <v>106.8478696085417</v>
       </c>
       <c r="D43">
-        <v>3.839860117477001E-05</v>
+        <v>4.8154832145140603E-5</v>
       </c>
       <c r="E43">
-        <v>32.64017825866202</v>
+        <v>37.132753982049209</v>
       </c>
       <c r="F43">
-        <v>1.176421307214517E-06</v>
+        <v>1.2968289981513271E-6</v>
       </c>
       <c r="G43">
-        <v>1.98988394728182E-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>4.3585463556533413E-5</v>
+      </c>
+      <c r="H43">
+        <v>9.488909804181068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>6810</v>
+        <v>37</v>
       </c>
       <c r="B44">
-        <v>22.5</v>
+        <v>17.338696236708479</v>
       </c>
       <c r="C44">
-        <v>141.3716694115407</v>
+        <v>108.9422414401367</v>
       </c>
       <c r="D44">
-        <v>2.899212397690161E-05</v>
+        <v>1.1592986718097069E-5</v>
       </c>
       <c r="E44">
-        <v>32.6388962236063</v>
+        <v>36.714410112142247</v>
       </c>
       <c r="F44">
-        <v>8.882691307414024E-07</v>
+        <v>3.157612142667388E-7</v>
       </c>
       <c r="G44">
-        <v>8.269721106439706E-06</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>2.164163225456114E-5</v>
+      </c>
+      <c r="H44">
+        <v>86.678659958936848</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>7198</v>
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>23.49691675231244</v>
+        <v>17.672025866379261</v>
       </c>
       <c r="C45">
-        <v>147.6354821021514</v>
+        <v>111.0366132717318</v>
       </c>
       <c r="D45">
-        <v>4.945416554334643E-06</v>
+        <v>1.1628735206238281E-5</v>
       </c>
       <c r="E45">
-        <v>32.17663302222243</v>
+        <v>36.322202865514122</v>
       </c>
       <c r="F45">
-        <v>1.536958994721153E-07</v>
+        <v>3.2015500957622548E-7</v>
       </c>
       <c r="G45">
-        <v>3.820181746194463E-06</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>1.6575918995275179E-5</v>
+      </c>
+      <c r="H45">
+        <v>42.542750361904893</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>7199</v>
+        <v>39</v>
       </c>
       <c r="B46">
-        <v>23.49948612538541</v>
+        <v>18.00535549605004</v>
       </c>
       <c r="C46">
-        <v>147.6516259492921</v>
+        <v>113.13098510332691</v>
       </c>
       <c r="D46">
-        <v>2.042521491995024E-05</v>
+        <v>1.8058746360682288E-5</v>
       </c>
       <c r="E46">
-        <v>32.17552649036283</v>
+        <v>35.954230088824779</v>
       </c>
       <c r="F46">
-        <v>6.348059269851565E-07</v>
+        <v>5.0227042314821447E-7</v>
       </c>
       <c r="G46">
-        <v>1.551953431919048E-05</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>1.868974112193987E-5</v>
+      </c>
+      <c r="H46">
+        <v>3.494122729534523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>7587</v>
+        <v>40</v>
       </c>
       <c r="B47">
-        <v>24.49640287769784</v>
+        <v>18.338685125720829</v>
       </c>
       <c r="C47">
-        <v>153.9154386399028</v>
+        <v>115.2253569349219</v>
       </c>
       <c r="D47">
-        <v>6.372037365009961E-06</v>
+        <v>4.2456209464667231E-5</v>
       </c>
       <c r="E47">
-        <v>31.77515995900428</v>
+        <v>35.608708538696533</v>
       </c>
       <c r="F47">
-        <v>2.005351782093637E-07</v>
+        <v>1.1922984912112E-6</v>
       </c>
       <c r="G47">
-        <v>1.293576875148301E-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>2.521321321744606E-5</v>
+      </c>
+      <c r="H47">
+        <v>40.613602732413227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>7588</v>
+        <v>41</v>
       </c>
       <c r="B48">
-        <v>24.49897225077081</v>
+        <v>18.672014755391611</v>
       </c>
       <c r="C48">
-        <v>153.9315824870436</v>
+        <v>117.319728766517</v>
       </c>
       <c r="D48">
-        <v>8.213241949128544E-06</v>
+        <v>5.1834357693345943E-5</v>
       </c>
       <c r="E48">
-        <v>31.77419819770801</v>
+        <v>35.283978213894798</v>
       </c>
       <c r="F48">
-        <v>2.584877798653939E-07</v>
+        <v>1.469062172613337E-6</v>
       </c>
       <c r="G48">
-        <v>8.222118921151545E-06</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>1.2238555433817911E-5</v>
+      </c>
+      <c r="H48">
+        <v>76.389105646448485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>7976</v>
+        <v>42</v>
       </c>
       <c r="B49">
-        <v>25.49588900308325</v>
+        <v>19.00534438506239</v>
       </c>
       <c r="C49">
-        <v>160.1953951776542</v>
+        <v>119.4141005981121</v>
       </c>
       <c r="D49">
-        <v>1.46716705847797E-05</v>
+        <v>6.9031791215334751E-6</v>
       </c>
       <c r="E49">
-        <v>31.42510056513281</v>
+        <v>34.978501522608617</v>
       </c>
       <c r="F49">
-        <v>4.66877442583538E-07</v>
+        <v>1.97354912904761E-7</v>
       </c>
       <c r="G49">
-        <v>4.259438673146818E-06</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>1.146078250578375E-5</v>
+      </c>
+      <c r="H49">
+        <v>66.021803925578112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>7977</v>
+        <v>43</v>
       </c>
       <c r="B50">
-        <v>25.49845837615622</v>
+        <v>19.338674014733169</v>
       </c>
       <c r="C50">
-        <v>160.211539024795</v>
+        <v>121.5084724297071</v>
       </c>
       <c r="D50">
-        <v>1.47023751593517E-05</v>
+        <v>3.6224464324682183E-5</v>
       </c>
       <c r="E50">
-        <v>31.42425923521325</v>
+        <v>34.690859222594113</v>
       </c>
       <c r="F50">
-        <v>4.67867040215751E-07</v>
+        <v>1.0442077577914019E-6</v>
       </c>
       <c r="G50">
-        <v>7.017247123184959E-06</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>1.9708925048513221E-5</v>
+      </c>
+      <c r="H50">
+        <v>45.59222498955161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>8365</v>
+        <v>44</v>
       </c>
       <c r="B51">
-        <v>26.49537512846865</v>
+        <v>19.672003644403951</v>
       </c>
       <c r="C51">
-        <v>166.4753517154057</v>
+        <v>123.6028442613022</v>
       </c>
       <c r="D51">
-        <v>7.521081843862299E-06</v>
+        <v>1.4243384281526329E-5</v>
       </c>
       <c r="E51">
-        <v>31.11797761667915</v>
+        <v>34.419744450425881</v>
       </c>
       <c r="F51">
-        <v>2.41695714821487E-07</v>
+        <v>4.1381435303916372E-7</v>
       </c>
       <c r="G51">
-        <v>5.786395444225059E-06</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>3.157450285806486E-5</v>
+      </c>
+      <c r="H51">
+        <v>121.67837526518881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>8366</v>
+        <v>45</v>
       </c>
       <c r="B52">
-        <v>26.49794450154162</v>
+        <v>20.005333274074729</v>
       </c>
       <c r="C52">
-        <v>166.4914955625464</v>
+        <v>125.69721609289719</v>
       </c>
       <c r="D52">
-        <v>1.579567823191897E-06</v>
+        <v>6.0566740790115921E-6</v>
       </c>
       <c r="E52">
-        <v>31.11723727030474</v>
+        <v>34.163955725899733</v>
       </c>
       <c r="F52">
-        <v>5.076182726219344E-08</v>
+        <v>1.7728257604607601E-7</v>
       </c>
       <c r="G52">
-        <v>7.18736617383319E-06</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>1.223554215242334E-5</v>
+      </c>
+      <c r="H52">
+        <v>102.0175098214976</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>8754</v>
+        <v>46</v>
       </c>
       <c r="B53">
-        <v>27.49486125385406</v>
+        <v>20.338662903745519</v>
       </c>
       <c r="C53">
-        <v>172.7553082531571</v>
+        <v>127.7915879244923</v>
       </c>
       <c r="D53">
-        <v>8.120036702466873E-06</v>
+        <v>2.793311540660319E-5</v>
       </c>
       <c r="E53">
-        <v>30.84698888108724</v>
+        <v>33.922389520446814</v>
       </c>
       <c r="F53">
-        <v>2.632359590678036E-07</v>
+        <v>8.2344185658756254E-7</v>
       </c>
       <c r="G53">
-        <v>1.130241458341164E-05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>7.4184260695901554E-6</v>
+      </c>
+      <c r="H53">
+        <v>73.442181576937557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>8755</v>
+        <v>47</v>
       </c>
       <c r="B54">
-        <v>27.49743062692703</v>
+        <v>20.671992533416301</v>
       </c>
       <c r="C54">
-        <v>172.7714521002979</v>
+        <v>129.8859597560874</v>
       </c>
       <c r="D54">
-        <v>2.590090087982651E-06</v>
+        <v>5.9919641791883947E-6</v>
       </c>
       <c r="E54">
-        <v>30.84633384239065</v>
+        <v>33.69403277367207</v>
       </c>
       <c r="F54">
-        <v>8.396751786506354E-08</v>
+        <v>1.7783458036731101E-7</v>
       </c>
       <c r="G54">
-        <v>1.42011246978857E-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>1.5359848087289221E-5</v>
+      </c>
+      <c r="H54">
+        <v>156.34078622562291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>9144</v>
+        <v>48</v>
       </c>
       <c r="B55">
-        <v>28.49691675231244</v>
+        <v>21.005322163087079</v>
       </c>
       <c r="C55">
-        <v>179.0514086380493</v>
+        <v>131.9803315876824</v>
       </c>
       <c r="D55">
-        <v>1.419213295004097E-05</v>
+        <v>3.1009804887749997E-5</v>
       </c>
       <c r="E55">
-        <v>30.60604656630298</v>
+        <v>33.477955601597209</v>
       </c>
       <c r="F55">
-        <v>4.637035665255245E-07</v>
+        <v>9.2627534538789308E-7</v>
       </c>
       <c r="G55">
-        <v>7.895747644616186E-07</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>2.6425622470002001E-5</v>
+      </c>
+      <c r="H55">
+        <v>14.7830095492117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>9145</v>
+        <v>49</v>
       </c>
       <c r="B56">
-        <v>28.49948612538541</v>
+        <v>21.338651792757862</v>
       </c>
       <c r="C56">
-        <v>179.06755248519</v>
+        <v>134.07470341927751</v>
       </c>
       <c r="D56">
-        <v>2.290202995082241E-05</v>
+        <v>4.3011092370853898E-5</v>
       </c>
       <c r="E56">
-        <v>30.60546426533974</v>
+        <v>33.273304344254313</v>
       </c>
       <c r="F56">
-        <v>7.482987270596196E-07</v>
+        <v>1.2926606845490881E-6</v>
       </c>
       <c r="G56">
-        <v>5.931769437851518E-06</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>1.7640213313217879E-5</v>
+      </c>
+      <c r="H56">
+        <v>58.986827953312762</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>9533</v>
+        <v>50</v>
       </c>
       <c r="B57">
-        <v>29.49640287769784</v>
+        <v>21.67198142242864</v>
       </c>
       <c r="C57">
-        <v>185.3313651758007</v>
+        <v>136.1690752508726</v>
       </c>
       <c r="D57">
-        <v>1.358556312558277E-05</v>
+        <v>2.486065896918226E-5</v>
       </c>
       <c r="E57">
-        <v>30.39188531172269</v>
+        <v>33.079295035301548</v>
       </c>
       <c r="F57">
-        <v>4.470128452459834E-07</v>
+        <v>7.5154742392942384E-7</v>
       </c>
       <c r="G57">
-        <v>8.415825231577063E-06</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>1.088584031190586E-5</v>
+      </c>
+      <c r="H57">
+        <v>56.212583401750713</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>9534</v>
+        <v>51</v>
       </c>
       <c r="B58">
-        <v>29.49897225077081</v>
+        <v>22.005311052099419</v>
       </c>
       <c r="C58">
-        <v>185.3475090229415</v>
+        <v>138.26344708246759</v>
       </c>
       <c r="D58">
-        <v>1.632708400830217E-05</v>
+        <v>5.6012275977769993E-5</v>
       </c>
       <c r="E58">
-        <v>30.39136511139476</v>
+        <v>32.895207332822622</v>
       </c>
       <c r="F58">
-        <v>5.372277272987843E-07</v>
+        <v>1.7027488354475669E-6</v>
       </c>
       <c r="G58">
-        <v>6.627215813118E-06</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>4.0507760119113733E-5</v>
+      </c>
+      <c r="H58">
+        <v>27.680567497042361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>9922</v>
+        <v>52</v>
       </c>
       <c r="B59">
-        <v>30.49588900308325</v>
+        <v>22.338640681770201</v>
       </c>
       <c r="C59">
-        <v>191.6113217135522</v>
+        <v>140.3578189140627</v>
       </c>
       <c r="D59">
-        <v>1.390979949454237E-05</v>
+        <v>2.322607749781066E-5</v>
       </c>
       <c r="E59">
-        <v>30.20015737736076</v>
+        <v>32.720378921816192</v>
       </c>
       <c r="F59">
-        <v>4.605869870390049E-07</v>
+        <v>7.0983522389237244E-7</v>
       </c>
       <c r="G59">
-        <v>1.007733463323652E-05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>2.7081151114226731E-6</v>
+      </c>
+      <c r="H59">
+        <v>88.34019600736309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>9923</v>
+        <v>53</v>
       </c>
       <c r="B60">
-        <v>30.49845837615622</v>
+        <v>22.67197031144098</v>
       </c>
       <c r="C60">
-        <v>191.6274655606929</v>
+        <v>142.45219074565779</v>
       </c>
       <c r="D60">
-        <v>1.160010437705429E-05</v>
+        <v>2.8797304006559969E-5</v>
       </c>
       <c r="E60">
-        <v>30.1996906623987</v>
+        <v>32.554200380474157</v>
       </c>
       <c r="F60">
-        <v>3.841133509191022E-07</v>
+        <v>8.8459564879475403E-7</v>
       </c>
       <c r="G60">
-        <v>1.254358783410378E-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>1.6003658455645201E-5</v>
+      </c>
+      <c r="H60">
+        <v>44.42653919269803</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>10311</v>
+        <v>54</v>
       </c>
       <c r="B61">
-        <v>31.49537512846865</v>
+        <v>23.005299941111769</v>
       </c>
       <c r="C61">
-        <v>197.8912782513036</v>
+        <v>144.54656257725281</v>
       </c>
       <c r="D61">
-        <v>7.272051049115637E-06</v>
+        <v>3.427794361238602E-5</v>
       </c>
       <c r="E61">
-        <v>30.02780355193386</v>
+        <v>32.396110490972568</v>
       </c>
       <c r="F61">
-        <v>2.421772553739549E-07</v>
+        <v>1.0580882424739799E-6</v>
       </c>
       <c r="G61">
-        <v>1.931886161186445E-05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>2.6660604173646651E-5</v>
+      </c>
+      <c r="H61">
+        <v>22.222276589506119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>10312</v>
+        <v>55</v>
       </c>
       <c r="B62">
-        <v>31.49794450154162</v>
+        <v>23.338629570782551</v>
       </c>
       <c r="C62">
-        <v>197.9074220984444</v>
+        <v>146.6409344088479</v>
       </c>
       <c r="D62">
-        <v>1.040159350457074E-05</v>
+        <v>3.0522912787803733E-5</v>
       </c>
       <c r="E62">
-        <v>30.0273831591135</v>
+        <v>32.245591968919292</v>
       </c>
       <c r="F62">
-        <v>3.464035959928059E-07</v>
+        <v>9.4657628916299607E-7</v>
       </c>
       <c r="G62">
-        <v>1.584099924537469E-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>2.2276705313336091E-5</v>
+      </c>
+      <c r="H62">
+        <v>27.016450008541248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>10700</v>
+        <v>56</v>
       </c>
       <c r="B63">
-        <v>32.49486125385406</v>
+        <v>23.67195920045333</v>
       </c>
       <c r="C63">
-        <v>204.1712347890551</v>
+        <v>148.73530624044301</v>
       </c>
       <c r="D63">
-        <v>1.838540683913201E-05</v>
+        <v>3.047127973053106E-5</v>
       </c>
       <c r="E63">
-        <v>29.87227195350778</v>
+        <v>32.10216758225684</v>
       </c>
       <c r="F63">
-        <v>6.15467309207229E-07</v>
+        <v>9.4919695539103765E-7</v>
       </c>
       <c r="G63">
-        <v>9.088795820459965E-06</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>2.0048078689336539E-5</v>
+      </c>
+      <c r="H63">
+        <v>34.20664026378541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>10701</v>
+        <v>57</v>
       </c>
       <c r="B64">
-        <v>32.49743062692703</v>
+        <v>24.005288830124108</v>
       </c>
       <c r="C64">
-        <v>204.1873786361958</v>
+        <v>150.82967807203801</v>
       </c>
       <c r="D64">
-        <v>1.539522341325235E-05</v>
+        <v>2.5812335665441741E-5</v>
       </c>
       <c r="E64">
-        <v>29.87189188720066</v>
+        <v>31.965396629220969</v>
       </c>
       <c r="F64">
-        <v>5.153749039862055E-07</v>
+        <v>8.0750869338018945E-7</v>
       </c>
       <c r="G64">
-        <v>1.164886612290217E-05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>9.5185395212821366E-6</v>
+      </c>
+      <c r="H64">
+        <v>63.124067327135307</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>10702</v>
+        <v>58</v>
       </c>
       <c r="B65">
-        <v>32.5</v>
+        <v>24.33861845979489</v>
       </c>
       <c r="C65">
-        <v>204.2035224833365</v>
+        <v>152.92404990363309</v>
       </c>
       <c r="D65">
-        <v>1.320800808974833E-05</v>
+        <v>3.2279018947183287E-5</v>
       </c>
       <c r="E65">
-        <v>29.87151191768896</v>
+        <v>31.834871745154729</v>
       </c>
       <c r="F65">
-        <v>4.421606822628542E-07</v>
+        <v>1.013951593886856E-6</v>
       </c>
       <c r="G65">
-        <v>1.621741211046959E-06</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>2.1834029457632702E-5</v>
+      </c>
+      <c r="H65">
+        <v>32.358447778853659</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>11090</v>
+        <v>59</v>
       </c>
       <c r="B66">
-        <v>33.49691675231244</v>
+        <v>24.671948089465669</v>
       </c>
       <c r="C66">
-        <v>210.4673351739472</v>
+        <v>155.0184217352282</v>
       </c>
       <c r="D66">
-        <v>3.824448491643855E-06</v>
+        <v>9.0735882635865848E-6</v>
       </c>
       <c r="E66">
-        <v>29.73107533894537</v>
+        <v>31.710216009053529</v>
       </c>
       <c r="F66">
-        <v>1.28634717985936E-07</v>
+        <v>2.8614085318737662E-7</v>
       </c>
       <c r="G66">
-        <v>1.211931600476631E-05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>7.5103306385396247E-6</v>
+      </c>
+      <c r="H66">
+        <v>17.228659485470629</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>11091</v>
+        <v>60</v>
       </c>
       <c r="B67">
-        <v>33.4994861253854</v>
+        <v>25.005277719136451</v>
       </c>
       <c r="C67">
-        <v>210.483479021088</v>
+        <v>157.11279356682331</v>
       </c>
       <c r="D67">
-        <v>3.537063708735916E-06</v>
+        <v>2.1441320851053761E-5</v>
       </c>
       <c r="E67">
-        <v>29.73073063431101</v>
+        <v>31.591080322312951</v>
       </c>
       <c r="F67">
-        <v>1.18969955775454E-07</v>
+        <v>6.7871439128688589E-7</v>
       </c>
       <c r="G67">
-        <v>1.344892750440826E-05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>2.137219633877464E-5</v>
+      </c>
+      <c r="H67">
+        <v>0.32238924439077632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>11479</v>
+        <v>61</v>
       </c>
       <c r="B68">
-        <v>34.49640287769784</v>
+        <v>25.338607348807241</v>
       </c>
       <c r="C68">
-        <v>216.7472917116987</v>
+        <v>159.20716539841831</v>
       </c>
       <c r="D68">
-        <v>5.450713036862214E-06</v>
+        <v>3.6967110146314507E-5</v>
       </c>
       <c r="E68">
-        <v>29.60312466893609</v>
+        <v>31.477141034025941</v>
       </c>
       <c r="F68">
-        <v>1.841262737572394E-07</v>
+        <v>1.174411300770742E-6</v>
       </c>
       <c r="G68">
-        <v>2.239115520254378E-06</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>1.6462573168492699E-5</v>
+      </c>
+      <c r="H68">
+        <v>55.466972929897914</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>11480</v>
+        <v>62</v>
       </c>
       <c r="B69">
-        <v>34.49897225077081</v>
+        <v>25.671936978478019</v>
       </c>
       <c r="C69">
-        <v>216.7634355588394</v>
+        <v>161.30153723001339</v>
       </c>
       <c r="D69">
-        <v>3.380878288948498E-06</v>
+        <v>3.461673453581889E-5</v>
       </c>
       <c r="E69">
-        <v>29.60281095301933</v>
+        <v>31.368097789167759</v>
       </c>
       <c r="F69">
-        <v>1.142080153913109E-07</v>
+        <v>1.1035649904079611E-6</v>
       </c>
       <c r="G69">
-        <v>1.506117854453412E-05</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>2.2592883327944512E-5</v>
+      </c>
+      <c r="H69">
+        <v>34.734215601511963</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>11868</v>
+        <v>63</v>
       </c>
       <c r="B70">
-        <v>35.49588900308325</v>
+        <v>26.005266608148801</v>
       </c>
       <c r="C70">
-        <v>223.0272482494501</v>
+        <v>163.39590906160839</v>
       </c>
       <c r="D70">
-        <v>1.804818431452183E-05</v>
+        <v>3.7165228368325532E-5</v>
       </c>
       <c r="E70">
-        <v>29.48650333776539</v>
+        <v>31.263671578008658</v>
       </c>
       <c r="F70">
-        <v>6.120828945969421E-07</v>
+        <v>1.18876723341951E-6</v>
       </c>
       <c r="G70">
-        <v>9.557391104343078E-06</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>1.7810716283348078E-5</v>
+      </c>
+      <c r="H70">
+        <v>52.076935713040157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>11869</v>
+        <v>64</v>
       </c>
       <c r="B71">
-        <v>35.49845837615621</v>
+        <v>26.33859623781958</v>
       </c>
       <c r="C71">
-        <v>223.0433920965908</v>
+        <v>165.4902808932035</v>
       </c>
       <c r="D71">
-        <v>1.133392881998808E-05</v>
+        <v>3.757169368326002E-5</v>
       </c>
       <c r="E71">
-        <v>29.48621696799031</v>
+        <v>31.16360296703871</v>
       </c>
       <c r="F71">
-        <v>3.84380567785009E-07</v>
+        <v>1.2056274020368911E-6</v>
       </c>
       <c r="G71">
-        <v>3.507472331016156E-06</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>1.632605883499121E-5</v>
+      </c>
+      <c r="H71">
+        <v>56.546918079806318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>12257</v>
+        <v>65</v>
       </c>
       <c r="B72">
-        <v>36.49537512846865</v>
+        <v>26.671925867490359</v>
       </c>
       <c r="C72">
-        <v>229.3072047872015</v>
+        <v>167.58465272479859</v>
       </c>
       <c r="D72">
-        <v>6.499243582771868E-06</v>
+        <v>2.2227253168676181E-5</v>
       </c>
       <c r="E72">
-        <v>29.37989916150776</v>
+        <v>31.067650493534689</v>
       </c>
       <c r="F72">
-        <v>2.21213951315629E-07</v>
+        <v>7.1544686564894119E-7</v>
       </c>
       <c r="G72">
-        <v>1.926228215217969E-05</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>2.3963410436399518E-5</v>
+      </c>
+      <c r="H72">
+        <v>7.8109393659582844</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>12258</v>
+        <v>66</v>
       </c>
       <c r="B73">
-        <v>36.49794450154162</v>
+        <v>27.005255497161141</v>
       </c>
       <c r="C73">
-        <v>229.3233486343423</v>
+        <v>169.67902455639361</v>
       </c>
       <c r="D73">
-        <v>1.730255805551967E-05</v>
+        <v>1.3736042888235551E-5</v>
       </c>
       <c r="E73">
-        <v>29.37963701900539</v>
+        <v>30.975589207623251</v>
       </c>
       <c r="F73">
-        <v>5.889302867944496E-07</v>
+        <v>4.434473480444736E-7</v>
       </c>
       <c r="G73">
-        <v>8.665498852653804E-06</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>2.2008303009053649E-5</v>
+      </c>
+      <c r="H73">
+        <v>60.223021929430672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>12646</v>
+        <v>67</v>
       </c>
       <c r="B74">
-        <v>37.49486125385406</v>
+        <v>27.338585126831919</v>
       </c>
       <c r="C74">
-        <v>235.587161324953</v>
+        <v>171.7733963879887</v>
       </c>
       <c r="D74">
-        <v>1.668906107031041E-05</v>
+        <v>7.5611456337281453E-6</v>
       </c>
       <c r="E74">
-        <v>29.28218594333428</v>
+        <v>30.887209347286671</v>
       </c>
       <c r="F74">
-        <v>5.699390442573658E-07</v>
+        <v>2.4479860089375039E-7</v>
       </c>
       <c r="G74">
-        <v>1.864037065405719E-05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>9.3700281349447287E-6</v>
+      </c>
+      <c r="H74">
+        <v>23.92339188849461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>12647</v>
+        <v>68</v>
       </c>
       <c r="B75">
-        <v>37.49743062692703</v>
+        <v>27.671914756502709</v>
       </c>
       <c r="C75">
-        <v>235.6033051720937</v>
+        <v>173.86776821958381</v>
       </c>
       <c r="D75">
-        <v>3.328634268400142E-05</v>
+        <v>9.2369141915956149E-6</v>
       </c>
       <c r="E75">
-        <v>29.28194534470619</v>
+        <v>30.80231513321516</v>
       </c>
       <c r="F75">
-        <v>1.13675311842009E-06</v>
+        <v>2.9987727064174938E-7</v>
       </c>
       <c r="G75">
-        <v>2.890082305983077E-05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>1.6075240186780849E-5</v>
+      </c>
+      <c r="H75">
+        <v>74.032581155806525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>13036</v>
+        <v>69</v>
       </c>
       <c r="B76">
-        <v>38.49691675231244</v>
+        <v>28.005244386173491</v>
       </c>
       <c r="C76">
-        <v>241.8832617098452</v>
+        <v>175.96214005117881</v>
       </c>
       <c r="D76">
-        <v>2.642703005737976E-05</v>
+        <v>4.561814709951547E-7</v>
       </c>
       <c r="E76">
-        <v>29.19217118866595</v>
+        <v>30.720723671735559</v>
       </c>
       <c r="F76">
-        <v>9.052779899989153E-07</v>
+        <v>1.4849307453484961E-8</v>
       </c>
       <c r="G76">
-        <v>2.29250018321487E-05</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>6.1021795826104698E-6</v>
+      </c>
+      <c r="H76">
+        <v>1237.664936126984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>13037</v>
+        <v>70</v>
       </c>
       <c r="B77">
-        <v>38.4994861253854</v>
+        <v>28.338574015844269</v>
       </c>
       <c r="C77">
-        <v>241.8994055569859</v>
+        <v>178.05651188277389</v>
       </c>
       <c r="D77">
-        <v>2.231343744842508E-05</v>
+        <v>7.4278654886880557E-6</v>
       </c>
       <c r="E77">
-        <v>29.19194986136134</v>
+        <v>30.642263955246559</v>
       </c>
       <c r="F77">
-        <v>7.643695455218388E-07</v>
+        <v>2.4240589727758218E-7</v>
       </c>
       <c r="G77">
-        <v>2.558967036044337E-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>1.1135001644853789E-5</v>
+      </c>
+      <c r="H77">
+        <v>49.90849877143522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>13425</v>
+        <v>71</v>
       </c>
       <c r="B78">
-        <v>39.49640287769784</v>
+        <v>28.671903645515052</v>
       </c>
       <c r="C78">
-        <v>248.1632182475966</v>
+        <v>180.150883714369</v>
       </c>
       <c r="D78">
-        <v>6.499306146848657E-06</v>
+        <v>3.3493993406257163E-5</v>
       </c>
       <c r="E78">
-        <v>29.10947374837823</v>
+        <v>30.566775950672969</v>
       </c>
       <c r="F78">
-        <v>2.232711660481581E-07</v>
+        <v>1.0957646779728411E-6</v>
       </c>
       <c r="G78">
-        <v>1.398738360871229E-05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>1.1367239971488369E-5</v>
+      </c>
+      <c r="H78">
+        <v>66.06185522994457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>13426</v>
+        <v>72</v>
       </c>
       <c r="B79">
-        <v>39.49897225077081</v>
+        <v>29.00523327518583</v>
       </c>
       <c r="C79">
-        <v>248.1793620947374</v>
+        <v>182.245255545964</v>
       </c>
       <c r="D79">
-        <v>1.06370320390641E-05</v>
+        <v>1.6266965895518949E-5</v>
       </c>
       <c r="E79">
-        <v>29.10926962772665</v>
+        <v>30.494109767425599</v>
       </c>
       <c r="F79">
-        <v>3.654173455775165E-07</v>
+        <v>5.3344616450799415E-7</v>
       </c>
       <c r="G79">
-        <v>5.103025895357446E-06</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>1.4586747307625509E-5</v>
+      </c>
+      <c r="H79">
+        <v>10.32902262588677</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
+        <v>73</v>
+      </c>
+      <c r="B80">
+        <v>29.338562904856609</v>
+      </c>
+      <c r="C80">
+        <v>184.33962737755911</v>
+      </c>
+      <c r="D80">
+        <v>1.4388939935519871E-5</v>
+      </c>
+      <c r="E80">
+        <v>30.424124897226449</v>
+      </c>
+      <c r="F80">
+        <v>4.7294507185091148E-7</v>
+      </c>
+      <c r="G80">
+        <v>2.413937600795125E-5</v>
+      </c>
+      <c r="H80">
+        <v>67.763407979498936</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>74</v>
+      </c>
+      <c r="B81">
+        <v>29.671892534527391</v>
+      </c>
+      <c r="C81">
+        <v>186.43399920915419</v>
+      </c>
+      <c r="D81">
+        <v>4.1822369147352748E-5</v>
+      </c>
+      <c r="E81">
+        <v>30.35668951894273</v>
+      </c>
+      <c r="F81">
+        <v>1.3776986163545731E-6</v>
+      </c>
+      <c r="G81">
+        <v>1.774213297735572E-5</v>
+      </c>
+      <c r="H81">
+        <v>57.577408121369537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>75</v>
+      </c>
+      <c r="B82">
+        <v>30.00522216419818</v>
+      </c>
+      <c r="C82">
+        <v>188.52837104074919</v>
+      </c>
+      <c r="D82">
+        <v>4.1281272295651359E-5</v>
+      </c>
+      <c r="E82">
+        <v>30.291679862273689</v>
+      </c>
+      <c r="F82">
+        <v>1.362792439486477E-6</v>
+      </c>
+      <c r="G82">
+        <v>1.6394367452873609E-5</v>
+      </c>
+      <c r="H82">
+        <v>60.286186589746613</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>76</v>
+      </c>
+      <c r="B83">
+        <v>30.338551793868959</v>
+      </c>
+      <c r="C83">
+        <v>190.6227428723443</v>
+      </c>
+      <c r="D83">
+        <v>3.4283516960068242E-5</v>
+      </c>
+      <c r="E83">
+        <v>30.228979624761539</v>
+      </c>
+      <c r="F83">
+        <v>1.134127495722201E-6</v>
+      </c>
+      <c r="G83">
+        <v>1.016846793030289E-5</v>
+      </c>
+      <c r="H83">
+        <v>70.340067671159218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>77</v>
+      </c>
+      <c r="B84">
+        <v>30.671881423539741</v>
+      </c>
+      <c r="C84">
+        <v>192.71711470393939</v>
+      </c>
+      <c r="D84">
+        <v>3.710773602955429E-5</v>
+      </c>
+      <c r="E84">
+        <v>30.16847943715824</v>
+      </c>
+      <c r="F84">
+        <v>1.2300167831411821E-6</v>
+      </c>
+      <c r="G84">
+        <v>2.8181422498557031E-5</v>
+      </c>
+      <c r="H84">
+        <v>24.055128353526971</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>78</v>
+      </c>
+      <c r="B85">
+        <v>31.00521105321052</v>
+      </c>
+      <c r="C85">
+        <v>194.81148653553441</v>
+      </c>
+      <c r="D85">
+        <v>3.5190642926574013E-5</v>
+      </c>
+      <c r="E85">
+        <v>30.110076372681331</v>
+      </c>
+      <c r="F85">
+        <v>1.168733100873243E-6</v>
+      </c>
+      <c r="G85">
+        <v>3.8578857460717713E-5</v>
+      </c>
+      <c r="H85">
+        <v>9.6281688891370525</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>79</v>
+      </c>
+      <c r="B86">
+        <v>31.338540682881298</v>
+      </c>
+      <c r="C86">
+        <v>196.9058583671295</v>
+      </c>
+      <c r="D86">
+        <v>2.108799316015784E-5</v>
+      </c>
+      <c r="E86">
+        <v>30.053673496139609</v>
+      </c>
+      <c r="F86">
+        <v>7.0167772212160997E-7</v>
+      </c>
+      <c r="G86">
+        <v>4.448600478375889E-6</v>
+      </c>
+      <c r="H86">
+        <v>78.904581177592775</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>80</v>
+      </c>
+      <c r="B87">
+        <v>31.67187031255208</v>
+      </c>
+      <c r="C87">
+        <v>199.00023019872461</v>
+      </c>
+      <c r="D87">
+        <v>1.890470097610714E-5</v>
+      </c>
+      <c r="E87">
+        <v>29.99917944931045</v>
+      </c>
+      <c r="F87">
+        <v>6.3017393552548242E-7</v>
+      </c>
+      <c r="G87">
+        <v>2.789907778444565E-6</v>
+      </c>
+      <c r="H87">
+        <v>85.242253860716389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>81</v>
+      </c>
+      <c r="B88">
+        <v>32.005199942222873</v>
+      </c>
+      <c r="C88">
+        <v>201.09460203031969</v>
+      </c>
+      <c r="D88">
+        <v>8.7157470396840531E-6</v>
+      </c>
+      <c r="E88">
+        <v>29.94650806930817</v>
+      </c>
+      <c r="F88">
+        <v>2.9104385124009571E-7</v>
+      </c>
+      <c r="G88">
+        <v>7.7333657980590257E-6</v>
+      </c>
+      <c r="H88">
+        <v>11.271337237669981</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>82</v>
+      </c>
+      <c r="B89">
+        <v>32.338529571893638</v>
+      </c>
+      <c r="C89">
+        <v>203.18897386191469</v>
+      </c>
+      <c r="D89">
+        <v>2.2347336515934342E-5</v>
+      </c>
+      <c r="E89">
+        <v>29.895578037003869</v>
+      </c>
+      <c r="F89">
+        <v>7.4751311007512426E-7</v>
+      </c>
+      <c r="G89">
+        <v>6.479929413655276E-6</v>
+      </c>
+      <c r="H89">
+        <v>71.003571682760096</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>83</v>
+      </c>
+      <c r="B90">
+        <v>32.67185920156443</v>
+      </c>
+      <c r="C90">
+        <v>205.2833456935098</v>
+      </c>
+      <c r="D90">
+        <v>1.6141646365974921E-5</v>
+      </c>
+      <c r="E90">
+        <v>29.846312552843429</v>
+      </c>
+      <c r="F90">
+        <v>5.4082548178760255E-7</v>
+      </c>
+      <c r="G90">
+        <v>2.2433518346693981E-5</v>
+      </c>
+      <c r="H90">
+        <v>38.979121695924022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>84</v>
+      </c>
+      <c r="B91">
+        <v>33.005188831235209</v>
+      </c>
+      <c r="C91">
+        <v>207.37771752510491</v>
+      </c>
+      <c r="D91">
+        <v>5.3056991167221537E-6</v>
+      </c>
+      <c r="E91">
+        <v>29.798639037667641</v>
+      </c>
+      <c r="F91">
+        <v>1.7805172612129591E-7</v>
+      </c>
+      <c r="G91">
+        <v>3.5947395889832838E-5</v>
+      </c>
+      <c r="H91">
+        <v>577.52420744207291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>85</v>
+      </c>
+      <c r="B92">
+        <v>33.338518460905988</v>
+      </c>
+      <c r="C92">
+        <v>209.47208935669991</v>
+      </c>
+      <c r="D92">
+        <v>2.1871611940073749E-5</v>
+      </c>
+      <c r="E92">
+        <v>29.752488856368089</v>
+      </c>
+      <c r="F92">
+        <v>7.3511873395399811E-7</v>
+      </c>
+      <c r="G92">
+        <v>2.3356873955886232E-5</v>
+      </c>
+      <c r="H92">
+        <v>6.7908209961020134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>86</v>
+      </c>
+      <c r="B93">
+        <v>33.671848090576773</v>
+      </c>
+      <c r="C93">
+        <v>211.56646118829499</v>
+      </c>
+      <c r="D93">
+        <v>1.7340577950378599E-5</v>
+      </c>
+      <c r="E93">
+        <v>29.707797062419299</v>
+      </c>
+      <c r="F93">
+        <v>5.8370460502150902E-7</v>
+      </c>
+      <c r="G93">
+        <v>1.5344029171834322E-5</v>
+      </c>
+      <c r="H93">
+        <v>11.513738378602829</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>87</v>
+      </c>
+      <c r="B94">
+        <v>34.005177720247552</v>
+      </c>
+      <c r="C94">
+        <v>213.66083301988999</v>
+      </c>
+      <c r="D94">
+        <v>3.5352927877757968E-5</v>
+      </c>
+      <c r="E94">
+        <v>29.664502161512381</v>
+      </c>
+      <c r="F94">
+        <v>1.1917586779401921E-6</v>
+      </c>
+      <c r="G94">
+        <v>2.0216534748352499E-5</v>
+      </c>
+      <c r="H94">
+        <v>42.81510482453821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>88</v>
+      </c>
+      <c r="B95">
+        <v>34.338507349918338</v>
+      </c>
+      <c r="C95">
+        <v>215.7552048514851</v>
+      </c>
+      <c r="D95">
+        <v>3.074648892762194E-5</v>
+      </c>
+      <c r="E95">
+        <v>29.622545892681831</v>
+      </c>
+      <c r="F95">
+        <v>1.0379421484909501E-6</v>
+      </c>
+      <c r="G95">
+        <v>1.345856009189045E-5</v>
+      </c>
+      <c r="H95">
+        <v>56.227326887397581</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>89</v>
+      </c>
+      <c r="B96">
+        <v>34.671836979589123</v>
+      </c>
+      <c r="C96">
+        <v>217.84957668308019</v>
+      </c>
+      <c r="D96">
+        <v>2.1247947673686329E-5</v>
+      </c>
+      <c r="E96">
+        <v>29.581873025466681</v>
+      </c>
+      <c r="F96">
+        <v>7.1827594065440774E-7</v>
+      </c>
+      <c r="G96">
+        <v>2.4964580301592779E-5</v>
+      </c>
+      <c r="H96">
+        <v>17.491725247936142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>90</v>
+      </c>
+      <c r="B97">
+        <v>35.005166609259888</v>
+      </c>
+      <c r="C97">
+        <v>219.94394851467521</v>
+      </c>
+      <c r="D97">
+        <v>7.458266897866562E-6</v>
+      </c>
+      <c r="E97">
+        <v>29.542431171781299</v>
+      </c>
+      <c r="F97">
+        <v>2.5245948292131901E-7</v>
+      </c>
+      <c r="G97">
+        <v>2.910983096271869E-5</v>
+      </c>
+      <c r="H97">
+        <v>290.30288619793907</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>91</v>
+      </c>
+      <c r="B98">
+        <v>35.338496238930681</v>
+      </c>
+      <c r="C98">
+        <v>222.0383203462703</v>
+      </c>
+      <c r="D98">
+        <v>3.4470708705177863E-5</v>
+      </c>
+      <c r="E98">
+        <v>29.50417061129238</v>
+      </c>
+      <c r="F98">
+        <v>1.168333425105147E-6</v>
+      </c>
+      <c r="G98">
+        <v>2.1530406263932671E-5</v>
+      </c>
+      <c r="H98">
+        <v>37.53999533900334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>92</v>
+      </c>
+      <c r="B99">
+        <v>35.671825868601459</v>
+      </c>
+      <c r="C99">
+        <v>224.13269217786541</v>
+      </c>
+      <c r="D99">
+        <v>1.020139500730129E-5</v>
+      </c>
+      <c r="E99">
+        <v>29.46704412920732</v>
+      </c>
+      <c r="F99">
+        <v>3.4619675331431719E-7</v>
+      </c>
+      <c r="G99">
+        <v>2.605503930438829E-5</v>
+      </c>
+      <c r="H99">
+        <v>155.40663101213431</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>93</v>
+      </c>
+      <c r="B100">
+        <v>36.005155498272252</v>
+      </c>
+      <c r="C100">
+        <v>226.22706400946049</v>
+      </c>
+      <c r="D100">
+        <v>4.3587705985035773E-5</v>
+      </c>
+      <c r="E100">
+        <v>29.43100686547767</v>
+      </c>
+      <c r="F100">
+        <v>1.481013075232699E-6</v>
+      </c>
+      <c r="G100">
+        <v>1.7560899952280139E-5</v>
+      </c>
+      <c r="H100">
+        <v>59.711346226137643</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>94</v>
+      </c>
+      <c r="B101">
+        <v>36.338485127943017</v>
+      </c>
+      <c r="C101">
+        <v>228.32143584105549</v>
+      </c>
+      <c r="D101">
+        <v>1.7522176513144541E-5</v>
+      </c>
+      <c r="E101">
+        <v>29.39601617450975</v>
+      </c>
+      <c r="F101">
+        <v>5.9607316886492225E-7</v>
+      </c>
+      <c r="G101">
+        <v>1.1355709161775749E-5</v>
+      </c>
+      <c r="H101">
+        <v>35.192359503643388</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>95</v>
+      </c>
+      <c r="B102">
+        <v>36.671814757613802</v>
+      </c>
+      <c r="C102">
+        <v>230.4158076726506</v>
+      </c>
+      <c r="D102">
+        <v>3.8376917412267322E-5</v>
+      </c>
+      <c r="E102">
+        <v>29.362031494554831</v>
+      </c>
+      <c r="F102">
+        <v>1.3070252792074111E-6</v>
+      </c>
+      <c r="G102">
+        <v>9.9143883565366318E-6</v>
+      </c>
+      <c r="H102">
+        <v>74.165751120574726</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>96</v>
+      </c>
+      <c r="B103">
+        <v>37.005144387284588</v>
+      </c>
+      <c r="C103">
+        <v>232.51017950424571</v>
+      </c>
+      <c r="D103">
+        <v>2.4805421580025261E-5</v>
+      </c>
+      <c r="E103">
+        <v>29.329014226023212</v>
+      </c>
+      <c r="F103">
+        <v>8.4576390426432293E-7</v>
+      </c>
+      <c r="G103">
+        <v>2.1129294354704199E-5</v>
+      </c>
+      <c r="H103">
+        <v>14.819853851148769</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>97</v>
+      </c>
+      <c r="B104">
+        <v>37.338474016955367</v>
+      </c>
+      <c r="C104">
+        <v>234.60455133584071</v>
+      </c>
+      <c r="D104">
+        <v>3.2651740248254671E-5</v>
+      </c>
+      <c r="E104">
+        <v>29.296927618032409</v>
+      </c>
+      <c r="F104">
+        <v>1.1145107321136759E-6</v>
+      </c>
+      <c r="G104">
+        <v>1.588691514067413E-5</v>
+      </c>
+      <c r="H104">
+        <v>51.344354022529217</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>98</v>
+      </c>
+      <c r="B105">
+        <v>37.671803646626152</v>
+      </c>
+      <c r="C105">
+        <v>236.69892316743579</v>
+      </c>
+      <c r="D105">
+        <v>2.946673328959156E-5</v>
+      </c>
+      <c r="E105">
+        <v>29.265736662558719</v>
+      </c>
+      <c r="F105">
+        <v>1.006867984542825E-6</v>
+      </c>
+      <c r="G105">
+        <v>1.8923640271477301E-5</v>
+      </c>
+      <c r="H105">
+        <v>35.779646540725842</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>99</v>
+      </c>
+      <c r="B106">
+        <v>38.005133276296931</v>
+      </c>
+      <c r="C106">
+        <v>238.79329499903079</v>
+      </c>
+      <c r="D106">
+        <v>4.0751927104072276E-6</v>
+      </c>
+      <c r="E106">
+        <v>29.235407995614931</v>
+      </c>
+      <c r="F106">
+        <v>1.3939236664726799E-7</v>
+      </c>
+      <c r="G106">
+        <v>1.76623466035182E-5</v>
+      </c>
+      <c r="H106">
+        <v>333.41132208084548</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>100</v>
+      </c>
+      <c r="B107">
+        <v>38.33846290596771</v>
+      </c>
+      <c r="C107">
+        <v>240.8876668306259</v>
+      </c>
+      <c r="D107">
+        <v>3.7613513349967943E-5</v>
+      </c>
+      <c r="E107">
+        <v>29.205909804926009</v>
+      </c>
+      <c r="F107">
+        <v>1.28787336539757E-6</v>
+      </c>
+      <c r="G107">
+        <v>1.661012633340445E-5</v>
+      </c>
+      <c r="H107">
+        <v>55.840003089159417</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>101</v>
+      </c>
+      <c r="B108">
+        <v>38.671792535638502</v>
+      </c>
+      <c r="C108">
+        <v>242.98203866222099</v>
+      </c>
+      <c r="D108">
+        <v>5.1256618828269408E-5</v>
+      </c>
+      <c r="E108">
+        <v>29.177211743618511</v>
+      </c>
+      <c r="F108">
+        <v>1.756734648898725E-6</v>
+      </c>
+      <c r="G108">
+        <v>2.9769965833072529E-5</v>
+      </c>
+      <c r="H108">
+        <v>41.919762727982388</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>102</v>
+      </c>
+      <c r="B109">
+        <v>39.005122165309267</v>
+      </c>
+      <c r="C109">
+        <v>245.07641049381601</v>
+      </c>
+      <c r="D109">
+        <v>7.9549584509672438E-6</v>
+      </c>
+      <c r="E109">
+        <v>29.149284849479631</v>
+      </c>
+      <c r="F109">
+        <v>2.729040692437178E-7</v>
+      </c>
+      <c r="G109">
+        <v>7.6205879066853008E-6</v>
+      </c>
+      <c r="H109">
+        <v>4.2032971805313064</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>103</v>
+      </c>
+      <c r="B110">
+        <v>39.33845179498006</v>
+      </c>
+      <c r="C110">
+        <v>247.1707823254111</v>
+      </c>
+      <c r="D110">
+        <v>2.3716453869543672E-5</v>
+      </c>
+      <c r="E110">
+        <v>29.122101469378521</v>
+      </c>
+      <c r="F110">
+        <v>8.1437989269013385E-7</v>
+      </c>
+      <c r="G110">
+        <v>2.6858612686047119E-5</v>
+      </c>
+      <c r="H110">
+        <v>13.248855979006921</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>104</v>
+      </c>
+      <c r="B111">
+        <v>39.671781424650838</v>
+      </c>
+      <c r="C111">
+        <v>249.26515415700621</v>
+      </c>
+      <c r="D111">
+        <v>5.5859421137536832E-5</v>
+      </c>
+      <c r="E111">
+        <v>29.09563518847526</v>
+      </c>
+      <c r="F111">
+        <v>1.919855702605959E-6</v>
+      </c>
+      <c r="G111">
+        <v>3.6270349235532722E-5</v>
+      </c>
+      <c r="H111">
+        <v>35.068519334942579</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
         <v>0</v>
       </c>
-      <c r="B80">
-        <v>40</v>
-      </c>
-      <c r="C80">
-        <v>251.3274122871834</v>
-      </c>
-      <c r="D80">
-        <v>3.710727941961141E-05</v>
-      </c>
-      <c r="E80">
-        <v>29.07025220229489</v>
-      </c>
-      <c r="F80">
-        <v>1.276469125943189E-06</v>
-      </c>
-      <c r="G80">
-        <v>1.72739502016775E-05</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="1">
-        <v>4007</v>
-      </c>
-      <c r="B81">
-        <v>50.29547790339157</v>
-      </c>
-      <c r="C81">
-        <v>316.0158077801655</v>
-      </c>
-      <c r="D81">
-        <v>1.63751973809156E-05</v>
-      </c>
-      <c r="E81">
-        <v>28.51685179504678</v>
-      </c>
-      <c r="F81">
-        <v>5.742287928066409E-07</v>
-      </c>
-      <c r="G81">
-        <v>1.261216276432435E-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="1">
-        <v>9047</v>
-      </c>
-      <c r="B82">
-        <v>63.24511819116135</v>
-      </c>
-      <c r="C82">
-        <v>397.3807973695414</v>
-      </c>
-      <c r="D82">
-        <v>2.429652443900502E-05</v>
-      </c>
-      <c r="E82">
-        <v>28.17464346480622</v>
-      </c>
-      <c r="F82">
-        <v>8.623542821173417E-07</v>
-      </c>
-      <c r="G82">
-        <v>3.888998678589182E-05</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="1">
-        <v>15383</v>
-      </c>
-      <c r="B83">
-        <v>79.52466598150052</v>
-      </c>
-      <c r="C83">
-        <v>499.6682128533283</v>
-      </c>
-      <c r="D83">
-        <v>6.64576131272802E-06</v>
-      </c>
-      <c r="E83">
-        <v>27.96139066038668</v>
-      </c>
-      <c r="F83">
-        <v>2.376763514177845E-07</v>
-      </c>
-      <c r="G83">
-        <v>1.324769697903425E-05</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="1">
-        <v>23352</v>
-      </c>
-      <c r="B84">
-        <v>100</v>
-      </c>
-      <c r="C84">
-        <v>628.3185307179587</v>
-      </c>
-      <c r="D84">
-        <v>3.890890878137632E-05</v>
-      </c>
-      <c r="E84">
-        <v>27.82772778468249</v>
-      </c>
-      <c r="F84">
-        <v>1.398206460923962E-06</v>
-      </c>
-      <c r="G84">
-        <v>1.668661314677659E-05</v>
+      <c r="B112">
+        <v>40.005111054321617</v>
+      </c>
+      <c r="C112">
+        <v>251.35952598860121</v>
+      </c>
+      <c r="D112">
+        <v>1.8916742786151549E-5</v>
+      </c>
+      <c r="E112">
+        <v>29.069860763873749</v>
+      </c>
+      <c r="F112">
+        <v>6.5073386280749322E-7</v>
+      </c>
+      <c r="G112">
+        <v>2.444484065275107E-5</v>
+      </c>
+      <c r="H112">
+        <v>29.223307252697278</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>50.299441117320917</v>
+      </c>
+      <c r="C113">
+        <v>316.04070938769547</v>
+      </c>
+      <c r="D113">
+        <v>3.1013490113812012E-5</v>
+      </c>
+      <c r="E113">
+        <v>28.516702994002571</v>
+      </c>
+      <c r="F113">
+        <v>1.087555252103812E-6</v>
+      </c>
+      <c r="G113">
+        <v>1.9208038954596859E-5</v>
+      </c>
+      <c r="H113">
+        <v>38.06553572620173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>2</v>
+      </c>
+      <c r="B114">
+        <v>63.243741736202942</v>
+      </c>
+      <c r="C114">
+        <v>397.37214884797072</v>
+      </c>
+      <c r="D114">
+        <v>7.7828070985965194E-5</v>
+      </c>
+      <c r="E114">
+        <v>28.17466838079222</v>
+      </c>
+      <c r="F114">
+        <v>2.762342041939477E-6</v>
+      </c>
+      <c r="G114">
+        <v>8.8476894423738779E-5</v>
+      </c>
+      <c r="H114">
+        <v>13.68249694855459</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>79.526894145620602</v>
+      </c>
+      <c r="C115">
+        <v>499.68221282138961</v>
+      </c>
+      <c r="D115">
+        <v>6.1354874280724718E-6</v>
+      </c>
+      <c r="E115">
+        <v>27.96136991177497</v>
+      </c>
+      <c r="F115">
+        <v>2.1942728297760269E-7</v>
+      </c>
+      <c r="G115">
+        <v>3.6381452946737913E-5</v>
+      </c>
+      <c r="H115">
+        <v>492.96760645743069</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>4</v>
+      </c>
+      <c r="B116">
+        <v>99.998888901234437</v>
+      </c>
+      <c r="C116">
+        <v>628.31154947851996</v>
+      </c>
+      <c r="D116">
+        <v>1.5840319948381469E-5</v>
+      </c>
+      <c r="E116">
+        <v>27.827732689811281</v>
+      </c>
+      <c r="F116">
+        <v>5.6922783199585541E-7</v>
+      </c>
+      <c r="G116">
+        <v>2.8262078731478949E-5</v>
+      </c>
+      <c r="H116">
+        <v>78.418610378931803</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>